--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>creepy</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -64,49 +64,43 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>destroying</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>behind</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>black</t>
   </si>
   <si>
     <t>fake</t>
@@ -130,33 +124,33 @@
     <t>great</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>wow</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -166,15 +160,15 @@
     <t>social</t>
   </si>
   <si>
-    <t>many</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -184,16 +178,16 @@
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -562,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -726,10 +720,10 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -794,16 +788,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,16 +838,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,16 +888,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,16 +938,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.6551724137931034</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1023,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,10 +1120,10 @@
         <v>0.625</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.5263157894736842</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.4242424242424243</v>
+        <v>0.375</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,38 +1217,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="L15">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>12</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15">
-        <v>0.375</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1265,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>0.3611111111111111</v>
@@ -1323,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5362318840579711</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.2542372881355932</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,16 +1388,16 @@
         <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.2477231329690346</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L18">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M18">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>826</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5319148936170213</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.2195121951219512</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L19">
         <v>9</v>
@@ -1465,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5294117647058824</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.180327868852459</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5217391304347826</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,31 +1535,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>0.1475409836065574</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>9</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>52</v>
-      </c>
-      <c r="K21">
-        <v>0.1408450704225352</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21">
-        <v>10</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4583333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.1368421052631579</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4230769230769231</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.1294117647058824</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1665,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1667,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.358974358974359</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.02592592592592593</v>
+        <v>0.04259259259259259</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,37 +1717,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3214285714285715</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.02435064935064935</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1765,39 +1759,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>601</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>68</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.02409638554216868</v>
+        <v>0.0204865556978233</v>
       </c>
       <c r="L26">
         <v>16</v>
@@ -1815,45 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>648</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.04040404040404041</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>14</v>
-      </c>
-      <c r="E27">
-        <v>0.14</v>
-      </c>
-      <c r="F27">
-        <v>0.86</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>285</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.0204865556978233</v>
+        <v>0.01900921658986175</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1865,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>765</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.01670506912442396</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1891,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1707</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
